--- a/Schedule Analysis/Championship Schedule Analysis.xlsx
+++ b/Schedule Analysis/Championship Schedule Analysis.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\Schedule Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0877AF3-B41F-4494-9CBD-2C38A40005C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC46D40B-E472-465D-B6B2-F5ABA289EF3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule Analysis" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Schedule Analysis'!$A$1:$W$1</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Team</t>
   </si>
@@ -185,12 +198,15 @@
   </si>
   <si>
     <t>Boston Bruins</t>
+  </si>
+  <si>
+    <t>Two Week Score</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -327,7 +343,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -519,6 +535,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -680,13 +702,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1061,11 +1084,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1123,6 +1146,9 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>54</v>
+      </c>
       <c r="K1" t="s">
         <v>9</v>
       </c>
@@ -1164,8 +1190,8 @@
       </c>
     </row>
     <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>22</v>
+      <c r="A2" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="B2" s="3">
         <v>45369</v>
@@ -1174,13 +1200,13 @@
         <v>4</v>
       </c>
       <c r="D2" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2" s="2">
         <v>3</v>
@@ -1193,79 +1219,79 @@
       </c>
       <c r="J2" s="2">
         <f>I2+F2</f>
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="K2" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L2" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M2" s="2">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="N2" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" s="2">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="Q2" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R2" s="2">
         <v>14</v>
       </c>
       <c r="S2" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T2" s="2">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="U2" s="2">
         <v>28</v>
       </c>
       <c r="V2" s="2">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="W2" s="2">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>23</v>
+      <c r="A3" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="B3" s="3">
         <v>45369</v>
       </c>
       <c r="C3" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3" s="2">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="G3" s="2">
         <v>3</v>
       </c>
       <c r="H3" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" s="2">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="J3" s="2">
         <f>I3+F3</f>
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="K3" s="2">
         <v>3</v>
@@ -1277,39 +1303,39 @@
         <v>6.5</v>
       </c>
       <c r="N3" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O3" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P3" s="2">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="Q3" s="2">
-        <v>27.5</v>
+        <v>25.5</v>
       </c>
       <c r="R3" s="2">
         <v>13</v>
       </c>
       <c r="S3" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T3" s="2">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="U3" s="2">
         <v>7</v>
       </c>
       <c r="V3" s="2">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="W3" s="2">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>24</v>
+      <c r="A4" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="B4" s="3">
         <v>45369</v>
@@ -1318,13 +1344,13 @@
         <v>4</v>
       </c>
       <c r="D4" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" s="2">
         <v>3</v>
@@ -1337,51 +1363,51 @@
       </c>
       <c r="J4" s="2">
         <f>I4+F4</f>
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="K4" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M4" s="2">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="N4" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" s="2">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="Q4" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R4" s="2">
         <v>14</v>
       </c>
       <c r="S4" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T4" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U4" s="2">
         <v>28</v>
       </c>
       <c r="V4" s="2">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="W4" s="2">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>25</v>
+      <c r="A5" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="B5" s="3">
         <v>45369</v>
@@ -1390,13 +1416,13 @@
         <v>4</v>
       </c>
       <c r="D5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G5" s="2">
         <v>3</v>
@@ -1409,339 +1435,339 @@
       </c>
       <c r="J5" s="2">
         <f>I5+F5</f>
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="K5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L5" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M5" s="2">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="N5" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P5" s="2">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q5" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R5" s="2">
         <v>14</v>
       </c>
       <c r="S5" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T5" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="U5" s="2">
         <v>28</v>
       </c>
       <c r="V5" s="2">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="W5" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="3">
+      <c r="A6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="5">
         <v>45369</v>
       </c>
-      <c r="C6" s="2">
-        <v>3</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>3</v>
-      </c>
-      <c r="F6" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="G6" s="2">
-        <v>4</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1</v>
-      </c>
-      <c r="I6" s="2">
-        <v>7</v>
-      </c>
-      <c r="J6" s="2">
+      <c r="C6" s="4">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4">
+        <v>8</v>
+      </c>
+      <c r="G6" s="4">
+        <v>3</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="J6" s="4">
         <f>I6+F6</f>
-        <v>11.5</v>
-      </c>
-      <c r="K6" s="2">
-        <v>2</v>
-      </c>
-      <c r="L6" s="2">
-        <v>2</v>
-      </c>
-      <c r="M6" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="K6" s="4">
+        <v>3</v>
+      </c>
+      <c r="L6" s="4">
+        <v>1</v>
+      </c>
+      <c r="M6" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="N6" s="4">
+        <v>3</v>
+      </c>
+      <c r="O6" s="4">
+        <v>2</v>
+      </c>
+      <c r="P6" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>24.5</v>
+      </c>
+      <c r="R6" s="4">
+        <v>13</v>
+      </c>
+      <c r="S6" s="4">
         <v>5</v>
       </c>
-      <c r="N6" s="2">
-        <v>4</v>
-      </c>
-      <c r="O6" s="2">
-        <v>4</v>
-      </c>
-      <c r="P6" s="2">
-        <v>10</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>26.5</v>
-      </c>
-      <c r="R6" s="2">
-        <v>13</v>
-      </c>
-      <c r="S6" s="2">
-        <v>7</v>
-      </c>
-      <c r="T6" s="2">
-        <v>28</v>
-      </c>
-      <c r="U6" s="2">
-        <v>7</v>
-      </c>
-      <c r="V6" s="2">
-        <v>30</v>
-      </c>
-      <c r="W6" s="2">
-        <v>65</v>
+      <c r="T6" s="4">
+        <v>20</v>
+      </c>
+      <c r="U6" s="4">
+        <v>7</v>
+      </c>
+      <c r="V6" s="4">
+        <v>19</v>
+      </c>
+      <c r="W6" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="3">
+      <c r="A7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="5">
         <v>45369</v>
       </c>
-      <c r="C7" s="2">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2">
-        <v>2</v>
-      </c>
-      <c r="F7" s="2">
-        <v>8</v>
-      </c>
-      <c r="G7" s="2">
-        <v>3</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="J7" s="2">
+      <c r="C7" s="4">
+        <v>3</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2</v>
+      </c>
+      <c r="F7" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="G7" s="4">
+        <v>4</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4">
+        <v>7</v>
+      </c>
+      <c r="J7" s="4">
         <f>I7+F7</f>
         <v>12.5</v>
       </c>
-      <c r="K7" s="2">
-        <v>3</v>
-      </c>
-      <c r="L7" s="2">
-        <v>2</v>
-      </c>
-      <c r="M7" s="2">
+      <c r="K7" s="4">
+        <v>3</v>
+      </c>
+      <c r="L7" s="4">
+        <v>2</v>
+      </c>
+      <c r="M7" s="4">
         <v>6.5</v>
       </c>
-      <c r="N7" s="2">
-        <v>4</v>
-      </c>
-      <c r="O7" s="2">
-        <v>1</v>
-      </c>
-      <c r="P7" s="2">
-        <v>7</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>26</v>
-      </c>
-      <c r="R7" s="2">
-        <v>14</v>
-      </c>
-      <c r="S7" s="2">
+      <c r="N7" s="4">
+        <v>3</v>
+      </c>
+      <c r="O7" s="4">
+        <v>1</v>
+      </c>
+      <c r="P7" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>24.5</v>
+      </c>
+      <c r="R7" s="4">
+        <v>13</v>
+      </c>
+      <c r="S7" s="4">
         <v>5</v>
       </c>
-      <c r="T7" s="2">
-        <v>27</v>
-      </c>
-      <c r="U7" s="2">
-        <v>28</v>
-      </c>
-      <c r="V7" s="2">
+      <c r="T7" s="4">
+        <v>20</v>
+      </c>
+      <c r="U7" s="4">
+        <v>7</v>
+      </c>
+      <c r="V7" s="4">
         <v>19</v>
       </c>
-      <c r="W7" s="2">
-        <v>74</v>
+      <c r="W7" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="3">
+      <c r="A8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="1">
         <v>45369</v>
       </c>
-      <c r="C8" s="2">
-        <v>4</v>
-      </c>
-      <c r="D8" s="2">
-        <v>2</v>
-      </c>
-      <c r="E8" s="2">
-        <v>2</v>
-      </c>
-      <c r="F8" s="2">
-        <v>8</v>
-      </c>
-      <c r="G8" s="2">
-        <v>3</v>
-      </c>
-      <c r="H8" s="2">
-        <v>2</v>
-      </c>
-      <c r="I8" s="2">
-        <v>6.5</v>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>5.5</v>
       </c>
       <c r="J8" s="2">
         <f>I8+F8</f>
-        <v>14.5</v>
-      </c>
-      <c r="K8" s="2">
-        <v>3</v>
-      </c>
-      <c r="L8" s="2">
-        <v>2</v>
-      </c>
-      <c r="M8" s="2">
-        <v>6.5</v>
-      </c>
-      <c r="N8" s="2">
-        <v>3</v>
-      </c>
-      <c r="O8" s="2">
-        <v>0</v>
-      </c>
-      <c r="P8" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>25.5</v>
-      </c>
-      <c r="R8" s="2">
-        <v>13</v>
-      </c>
-      <c r="S8" s="2">
-        <v>6</v>
-      </c>
-      <c r="T8" s="2">
-        <v>26</v>
-      </c>
-      <c r="U8" s="2">
-        <v>7</v>
-      </c>
-      <c r="V8" s="2">
-        <v>26</v>
-      </c>
-      <c r="W8" s="2">
-        <v>59</v>
+        <v>12.5</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>7</v>
+      </c>
+      <c r="N8">
+        <v>3</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>4.5</v>
+      </c>
+      <c r="Q8">
+        <v>24</v>
+      </c>
+      <c r="R8">
+        <v>14</v>
+      </c>
+      <c r="S8">
+        <v>3</v>
+      </c>
+      <c r="T8">
+        <v>18</v>
+      </c>
+      <c r="U8">
+        <v>28</v>
+      </c>
+      <c r="V8">
+        <v>8</v>
+      </c>
+      <c r="W8">
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="5">
+      <c r="A9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="3">
         <v>45369</v>
       </c>
-      <c r="C9" s="4">
-        <v>4</v>
-      </c>
-      <c r="D9" s="4">
-        <v>2</v>
-      </c>
-      <c r="E9" s="4">
-        <v>2</v>
-      </c>
-      <c r="F9" s="4">
+      <c r="C9" s="2">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="G9" s="2">
+        <v>3</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="J9" s="2">
+        <f>I9+F9</f>
+        <v>12</v>
+      </c>
+      <c r="K9" s="2">
+        <v>3</v>
+      </c>
+      <c r="L9" s="2">
+        <v>2</v>
+      </c>
+      <c r="M9" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="N9" s="2">
+        <v>4</v>
+      </c>
+      <c r="O9" s="2">
+        <v>3</v>
+      </c>
+      <c r="P9" s="2">
+        <v>9</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>27.5</v>
+      </c>
+      <c r="R9" s="2">
+        <v>13</v>
+      </c>
+      <c r="S9" s="2">
         <v>8</v>
       </c>
-      <c r="G9" s="4">
-        <v>3</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="J9" s="4">
-        <f>I9+F9</f>
-        <v>12.5</v>
-      </c>
-      <c r="K9" s="4">
-        <v>3</v>
-      </c>
-      <c r="L9" s="4">
-        <v>1</v>
-      </c>
-      <c r="M9" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="N9" s="4">
-        <v>3</v>
-      </c>
-      <c r="O9" s="4">
-        <v>2</v>
-      </c>
-      <c r="P9" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>24.5</v>
-      </c>
-      <c r="R9" s="4">
-        <v>13</v>
-      </c>
-      <c r="S9" s="4">
-        <v>5</v>
-      </c>
-      <c r="T9" s="4">
-        <v>20</v>
-      </c>
-      <c r="U9" s="4">
-        <v>7</v>
-      </c>
-      <c r="V9" s="4">
-        <v>19</v>
-      </c>
-      <c r="W9" s="4">
-        <v>46</v>
+      <c r="T9" s="2">
+        <v>31</v>
+      </c>
+      <c r="U9" s="2">
+        <v>7</v>
+      </c>
+      <c r="V9" s="2">
+        <v>32</v>
+      </c>
+      <c r="W9" s="2">
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>33</v>
+      <c r="A10" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="B10" s="5">
         <v>45369</v>
@@ -1750,229 +1776,229 @@
         <v>3</v>
       </c>
       <c r="D10" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E10" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F10" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="G10" s="4">
+        <v>3</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="J10" s="2">
+        <f>I10+F10</f>
+        <v>12</v>
+      </c>
+      <c r="K10" s="4">
+        <v>3</v>
+      </c>
+      <c r="L10" s="4">
+        <v>1</v>
+      </c>
+      <c r="M10" s="4">
         <v>5.5</v>
       </c>
-      <c r="G10" s="4">
-        <v>4</v>
-      </c>
-      <c r="H10" s="4">
-        <v>1</v>
-      </c>
-      <c r="I10" s="4">
-        <v>7</v>
-      </c>
-      <c r="J10" s="4">
-        <f>I10+F10</f>
-        <v>12.5</v>
-      </c>
-      <c r="K10" s="4">
-        <v>3</v>
-      </c>
-      <c r="L10" s="4">
-        <v>2</v>
-      </c>
-      <c r="M10" s="4">
-        <v>6.5</v>
-      </c>
       <c r="N10" s="4">
         <v>3</v>
       </c>
       <c r="O10" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" s="4">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q10" s="4">
-        <v>24.5</v>
+        <v>22</v>
       </c>
       <c r="R10" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S10" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T10" s="4">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="U10" s="4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="V10" s="4">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="W10" s="4">
-        <v>46</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="5">
+      <c r="A11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="3">
         <v>45369</v>
       </c>
-      <c r="C11" s="4">
-        <v>3</v>
-      </c>
-      <c r="D11" s="4">
-        <v>2</v>
-      </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-      <c r="F11" s="4">
+      <c r="C11" s="2">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2">
+        <v>7</v>
+      </c>
+      <c r="G11" s="2">
+        <v>3</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="J11" s="2">
+        <f>I11+F11</f>
+        <v>11.5</v>
+      </c>
+      <c r="K11" s="2">
+        <v>4</v>
+      </c>
+      <c r="L11" s="2">
+        <v>3</v>
+      </c>
+      <c r="M11" s="2">
+        <v>9</v>
+      </c>
+      <c r="N11" s="2">
+        <v>3</v>
+      </c>
+      <c r="O11" s="2">
+        <v>2</v>
+      </c>
+      <c r="P11" s="2">
         <v>6.5</v>
       </c>
-      <c r="G11" s="4">
-        <v>3</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0</v>
-      </c>
-      <c r="I11" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="J11" s="4">
-        <f>I11+F11</f>
-        <v>11</v>
-      </c>
-      <c r="K11" s="4">
-        <v>3</v>
-      </c>
-      <c r="L11" s="4">
-        <v>1</v>
-      </c>
-      <c r="M11" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="N11" s="4">
-        <v>4</v>
-      </c>
-      <c r="O11" s="4">
-        <v>2</v>
-      </c>
-      <c r="P11" s="4">
-        <v>8</v>
-      </c>
-      <c r="Q11" s="4">
-        <v>24.5</v>
-      </c>
-      <c r="R11" s="4">
-        <v>13</v>
-      </c>
-      <c r="S11" s="4">
-        <v>5</v>
-      </c>
-      <c r="T11" s="4">
-        <v>20</v>
-      </c>
-      <c r="U11" s="4">
-        <v>7</v>
-      </c>
-      <c r="V11" s="4">
-        <v>19</v>
-      </c>
-      <c r="W11" s="4">
-        <v>46</v>
+      <c r="Q11" s="2">
+        <v>27</v>
+      </c>
+      <c r="R11" s="2">
+        <v>14</v>
+      </c>
+      <c r="S11" s="2">
+        <v>6</v>
+      </c>
+      <c r="T11" s="2">
+        <v>29</v>
+      </c>
+      <c r="U11" s="2">
+        <v>28</v>
+      </c>
+      <c r="V11" s="2">
+        <v>26</v>
+      </c>
+      <c r="W11" s="2">
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="5">
+      <c r="A12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="3">
         <v>45369</v>
       </c>
-      <c r="C12" s="4">
-        <v>3</v>
-      </c>
-      <c r="D12" s="4">
-        <v>2</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-      <c r="F12" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="G12" s="4">
-        <v>3</v>
-      </c>
-      <c r="H12" s="4">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="J12" s="4">
+      <c r="C12" s="2">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>3</v>
+      </c>
+      <c r="F12" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="G12" s="2">
+        <v>4</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2">
+        <v>7</v>
+      </c>
+      <c r="J12" s="2">
         <f>I12+F12</f>
-        <v>11</v>
-      </c>
-      <c r="K12" s="4">
-        <v>4</v>
-      </c>
-      <c r="L12" s="4">
-        <v>2</v>
-      </c>
-      <c r="M12" s="4">
-        <v>8</v>
-      </c>
-      <c r="N12" s="4">
-        <v>3</v>
-      </c>
-      <c r="O12" s="4">
-        <v>1</v>
-      </c>
-      <c r="P12" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="Q12" s="4">
-        <v>24.5</v>
-      </c>
-      <c r="R12" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="K12" s="2">
+        <v>2</v>
+      </c>
+      <c r="L12" s="2">
+        <v>2</v>
+      </c>
+      <c r="M12" s="2">
+        <v>5</v>
+      </c>
+      <c r="N12" s="2">
+        <v>4</v>
+      </c>
+      <c r="O12" s="2">
+        <v>4</v>
+      </c>
+      <c r="P12" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>26.5</v>
+      </c>
+      <c r="R12" s="2">
         <v>13</v>
       </c>
-      <c r="S12" s="4">
-        <v>5</v>
-      </c>
-      <c r="T12" s="4">
-        <v>20</v>
-      </c>
-      <c r="U12" s="4">
-        <v>7</v>
-      </c>
-      <c r="V12" s="4">
-        <v>19</v>
-      </c>
-      <c r="W12" s="4">
-        <v>46</v>
+      <c r="S12" s="2">
+        <v>7</v>
+      </c>
+      <c r="T12" s="2">
+        <v>28</v>
+      </c>
+      <c r="U12" s="2">
+        <v>7</v>
+      </c>
+      <c r="V12" s="2">
+        <v>30</v>
+      </c>
+      <c r="W12" s="2">
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B13" s="1">
         <v>45369</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -1985,291 +2011,291 @@
       </c>
       <c r="J13" s="2">
         <f>I13+F13</f>
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="K13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>2</v>
       </c>
       <c r="M13">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="N13">
         <v>3</v>
       </c>
       <c r="O13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q13">
-        <v>24.5</v>
+        <v>22.5</v>
       </c>
       <c r="R13">
         <v>13</v>
       </c>
       <c r="S13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T13">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="U13">
         <v>7</v>
       </c>
       <c r="V13">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="W13">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="1">
+      <c r="A14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="5">
         <v>45369</v>
       </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>4.5</v>
-      </c>
-      <c r="G14">
-        <v>3</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>5.5</v>
+      <c r="C14" s="4">
+        <v>4</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4">
+        <v>3</v>
+      </c>
+      <c r="F14" s="4">
+        <v>7</v>
+      </c>
+      <c r="G14" s="4">
+        <v>3</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>4.5</v>
       </c>
       <c r="J14" s="2">
         <f>I14+F14</f>
-        <v>10</v>
-      </c>
-      <c r="K14">
-        <v>4</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>7</v>
-      </c>
-      <c r="N14">
-        <v>3</v>
-      </c>
-      <c r="O14">
-        <v>3</v>
-      </c>
-      <c r="P14">
-        <v>7.5</v>
-      </c>
-      <c r="Q14">
-        <v>24.5</v>
-      </c>
-      <c r="R14">
+        <v>11.5</v>
+      </c>
+      <c r="K14" s="4">
+        <v>3</v>
+      </c>
+      <c r="L14" s="4">
+        <v>1</v>
+      </c>
+      <c r="M14" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="N14" s="4">
+        <v>3</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0</v>
+      </c>
+      <c r="P14" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>21.5</v>
+      </c>
+      <c r="R14" s="4">
         <v>13</v>
       </c>
-      <c r="S14">
+      <c r="S14" s="4">
+        <v>2</v>
+      </c>
+      <c r="T14" s="4">
         <v>5</v>
       </c>
-      <c r="T14">
-        <v>20</v>
-      </c>
-      <c r="U14">
-        <v>7</v>
-      </c>
-      <c r="V14">
-        <v>19</v>
-      </c>
-      <c r="W14">
-        <v>46</v>
+      <c r="U14" s="4">
+        <v>7</v>
+      </c>
+      <c r="V14" s="4">
+        <v>2</v>
+      </c>
+      <c r="W14" s="4">
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="1">
+      <c r="A15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="5">
         <v>45369</v>
       </c>
-      <c r="C15">
-        <v>4</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>7</v>
-      </c>
-      <c r="G15">
-        <v>3</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
+      <c r="C15" s="4">
+        <v>3</v>
+      </c>
+      <c r="D15" s="4">
+        <v>2</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="G15" s="4">
+        <v>3</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="J15" s="4">
+        <f>I15+F15</f>
+        <v>11</v>
+      </c>
+      <c r="K15" s="4">
+        <v>3</v>
+      </c>
+      <c r="L15" s="4">
+        <v>1</v>
+      </c>
+      <c r="M15" s="4">
         <v>5.5</v>
       </c>
-      <c r="J15" s="2">
-        <f>I15+F15</f>
-        <v>12.5</v>
-      </c>
-      <c r="K15">
-        <v>4</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>7</v>
-      </c>
-      <c r="N15">
-        <v>3</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>4.5</v>
-      </c>
-      <c r="Q15">
-        <v>24</v>
-      </c>
-      <c r="R15">
-        <v>14</v>
-      </c>
-      <c r="S15">
-        <v>3</v>
-      </c>
-      <c r="T15">
-        <v>18</v>
-      </c>
-      <c r="U15">
-        <v>28</v>
-      </c>
-      <c r="V15">
+      <c r="N15" s="4">
+        <v>4</v>
+      </c>
+      <c r="O15" s="4">
+        <v>2</v>
+      </c>
+      <c r="P15" s="4">
         <v>8</v>
       </c>
-      <c r="W15">
-        <v>54</v>
+      <c r="Q15" s="4">
+        <v>24.5</v>
+      </c>
+      <c r="R15" s="4">
+        <v>13</v>
+      </c>
+      <c r="S15" s="4">
+        <v>5</v>
+      </c>
+      <c r="T15" s="4">
+        <v>20</v>
+      </c>
+      <c r="U15" s="4">
+        <v>7</v>
+      </c>
+      <c r="V15" s="4">
+        <v>19</v>
+      </c>
+      <c r="W15" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="1">
+      <c r="A16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="5">
         <v>45369</v>
       </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>4.5</v>
-      </c>
-      <c r="G16">
-        <v>3</v>
-      </c>
-      <c r="H16">
-        <v>2</v>
-      </c>
-      <c r="I16">
+      <c r="C16" s="4">
+        <v>3</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4">
         <v>6.5</v>
       </c>
-      <c r="J16" s="2">
+      <c r="G16" s="4">
+        <v>3</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="J16" s="4">
         <f>I16+F16</f>
         <v>11</v>
       </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>2</v>
-      </c>
-      <c r="M16">
-        <v>6.5</v>
-      </c>
-      <c r="N16">
-        <v>3</v>
-      </c>
-      <c r="O16">
-        <v>2</v>
-      </c>
-      <c r="P16">
-        <v>6.5</v>
-      </c>
-      <c r="Q16">
-        <v>24</v>
-      </c>
-      <c r="R16">
-        <v>12</v>
-      </c>
-      <c r="S16">
-        <v>6</v>
-      </c>
-      <c r="T16">
-        <v>18</v>
-      </c>
-      <c r="U16">
-        <v>2</v>
-      </c>
-      <c r="V16">
-        <v>26</v>
-      </c>
-      <c r="W16">
+      <c r="K16" s="4">
+        <v>4</v>
+      </c>
+      <c r="L16" s="4">
+        <v>2</v>
+      </c>
+      <c r="M16" s="4">
+        <v>8</v>
+      </c>
+      <c r="N16" s="4">
+        <v>3</v>
+      </c>
+      <c r="O16" s="4">
+        <v>1</v>
+      </c>
+      <c r="P16" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>24.5</v>
+      </c>
+      <c r="R16" s="4">
+        <v>13</v>
+      </c>
+      <c r="S16" s="4">
+        <v>5</v>
+      </c>
+      <c r="T16" s="4">
+        <v>20</v>
+      </c>
+      <c r="U16" s="4">
+        <v>7</v>
+      </c>
+      <c r="V16" s="4">
+        <v>19</v>
+      </c>
+      <c r="W16" s="4">
         <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B17" s="1">
         <v>45369</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="J17" s="2">
         <f>I17+F17</f>
@@ -2288,132 +2314,132 @@
         <v>3</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q17">
-        <v>23.5</v>
+        <v>24.5</v>
       </c>
       <c r="R17">
         <v>13</v>
       </c>
       <c r="S17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T17">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="U17">
         <v>7</v>
       </c>
       <c r="V17">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="W17">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B18" s="1">
         <v>45369</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>3</v>
       </c>
       <c r="F18">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="J18" s="2">
         <f>I18+F18</f>
         <v>11</v>
       </c>
       <c r="K18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>2</v>
       </c>
       <c r="M18">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="N18">
         <v>3</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P18">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q18">
-        <v>23.5</v>
+        <v>24</v>
       </c>
       <c r="R18">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T18">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="U18">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="V18">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="W18">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B19" s="1">
         <v>45369</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="J19" s="2">
         <f>I19+F19</f>
@@ -2461,7 +2487,7 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B20" s="1">
         <v>45369</v>
@@ -2479,26 +2505,26 @@
         <v>7</v>
       </c>
       <c r="G20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="J20" s="2">
         <f>I20+F20</f>
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L20">
         <v>2</v>
       </c>
       <c r="M20">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="N20">
         <v>3</v>
@@ -2510,58 +2536,58 @@
         <v>4.5</v>
       </c>
       <c r="Q20">
-        <v>22.5</v>
+        <v>23.5</v>
       </c>
       <c r="R20">
         <v>13</v>
       </c>
       <c r="S20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T20">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="U20">
         <v>7</v>
       </c>
       <c r="V20">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="W20">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" s="1">
         <v>45369</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="J21" s="2">
         <f>I21+F21</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K21">
         <v>4</v>
@@ -2582,30 +2608,30 @@
         <v>4.5</v>
       </c>
       <c r="Q21">
-        <v>22.5</v>
+        <v>23.5</v>
       </c>
       <c r="R21">
         <v>13</v>
       </c>
       <c r="S21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T21">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="U21">
         <v>7</v>
       </c>
       <c r="V21">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="W21">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B22" s="1">
         <v>45369</v>
@@ -2614,22 +2640,22 @@
         <v>3</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
+        <v>4.5</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
         <v>5.5</v>
-      </c>
-      <c r="G22">
-        <v>3</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>4.5</v>
       </c>
       <c r="J22" s="2">
         <f>I22+F22</f>
@@ -2639,82 +2665,82 @@
         <v>4</v>
       </c>
       <c r="L22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N22">
         <v>3</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P22">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q22">
-        <v>22.5</v>
+        <v>24.5</v>
       </c>
       <c r="R22">
         <v>13</v>
       </c>
       <c r="S22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T22">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="U22">
         <v>7</v>
       </c>
       <c r="V22">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="W22">
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B23" s="1">
         <v>45369</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <v>3</v>
       </c>
       <c r="F23">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="G23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="J23" s="2">
         <f>I23+F23</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K23">
         <v>4</v>
       </c>
       <c r="L23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M23">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N23">
         <v>3</v>
@@ -2748,80 +2774,80 @@
       </c>
     </row>
     <row r="24" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="5">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="1">
         <v>45369</v>
       </c>
-      <c r="C24" s="4">
-        <v>3</v>
-      </c>
-      <c r="D24" s="4">
-        <v>3</v>
-      </c>
-      <c r="E24" s="4">
-        <v>0</v>
-      </c>
-      <c r="F24" s="4">
-        <v>7.5</v>
-      </c>
-      <c r="G24" s="4">
-        <v>3</v>
-      </c>
-      <c r="H24" s="4">
-        <v>0</v>
-      </c>
-      <c r="I24" s="4">
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>5.5</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
         <v>4.5</v>
       </c>
       <c r="J24" s="2">
         <f>I24+F24</f>
-        <v>12</v>
-      </c>
-      <c r="K24" s="4">
-        <v>3</v>
-      </c>
-      <c r="L24" s="4">
-        <v>1</v>
-      </c>
-      <c r="M24" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="N24" s="4">
-        <v>3</v>
-      </c>
-      <c r="O24" s="4">
-        <v>0</v>
-      </c>
-      <c r="P24" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="Q24" s="4">
-        <v>22</v>
-      </c>
-      <c r="R24" s="4">
-        <v>12</v>
-      </c>
-      <c r="S24" s="4">
-        <v>4</v>
-      </c>
-      <c r="T24" s="4">
-        <v>9</v>
-      </c>
-      <c r="U24" s="4">
-        <v>2</v>
-      </c>
-      <c r="V24" s="4">
-        <v>14</v>
-      </c>
-      <c r="W24" s="4">
-        <v>25</v>
+        <v>10</v>
+      </c>
+      <c r="K24">
+        <v>4</v>
+      </c>
+      <c r="L24">
+        <v>2</v>
+      </c>
+      <c r="M24">
+        <v>8</v>
+      </c>
+      <c r="N24">
+        <v>3</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>4.5</v>
+      </c>
+      <c r="Q24">
+        <v>22.5</v>
+      </c>
+      <c r="R24">
+        <v>13</v>
+      </c>
+      <c r="S24">
+        <v>3</v>
+      </c>
+      <c r="T24">
+        <v>11</v>
+      </c>
+      <c r="U24">
+        <v>7</v>
+      </c>
+      <c r="V24">
+        <v>8</v>
+      </c>
+      <c r="W24">
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B25" s="5">
         <v>45369</v>
@@ -2830,13 +2856,13 @@
         <v>3</v>
       </c>
       <c r="D25" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25" s="4">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="G25" s="4">
         <v>3</v>
@@ -2849,66 +2875,66 @@
       </c>
       <c r="J25" s="2">
         <f>I25+F25</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K25" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L25" s="4">
         <v>1</v>
       </c>
       <c r="M25" s="4">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="N25" s="4">
         <v>3</v>
       </c>
       <c r="O25" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P25" s="4">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q25" s="4">
-        <v>22</v>
+        <v>21.5</v>
       </c>
       <c r="R25" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S25" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T25" s="4">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="U25" s="4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="V25" s="4">
+        <v>2</v>
+      </c>
+      <c r="W25" s="4">
         <v>14</v>
-      </c>
-      <c r="W25" s="4">
-        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B26" s="5">
         <v>45369</v>
       </c>
       <c r="C26" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
       </c>
       <c r="E26" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26" s="4">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="G26" s="4">
         <v>3</v>
@@ -2921,16 +2947,16 @@
       </c>
       <c r="J26" s="2">
         <f>I26+F26</f>
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="K26" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L26" s="4">
         <v>1</v>
       </c>
       <c r="M26" s="4">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="N26" s="4">
         <v>3</v>
@@ -2965,7 +2991,7 @@
     </row>
     <row r="27" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B27" s="5">
         <v>45369</v>
@@ -2974,142 +3000,142 @@
         <v>3</v>
       </c>
       <c r="D27" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G27" s="4">
+        <v>3</v>
+      </c>
+      <c r="H27" s="4">
+        <v>1</v>
+      </c>
+      <c r="I27" s="4">
         <v>5.5</v>
-      </c>
-      <c r="G27" s="4">
-        <v>3</v>
-      </c>
-      <c r="H27" s="4">
-        <v>0</v>
-      </c>
-      <c r="I27" s="4">
-        <v>4.5</v>
       </c>
       <c r="J27" s="2">
         <f>I27+F27</f>
         <v>10</v>
       </c>
       <c r="K27" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L27" s="4">
         <v>1</v>
       </c>
       <c r="M27" s="4">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="N27" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O27" s="4">
         <v>0</v>
       </c>
       <c r="P27" s="4">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q27" s="4">
-        <v>21.5</v>
+        <v>18.5</v>
       </c>
       <c r="R27" s="4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="S27" s="4">
         <v>2</v>
       </c>
       <c r="T27" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U27" s="4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V27" s="4">
         <v>2</v>
       </c>
       <c r="W27" s="4">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="5">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="1">
         <v>45369</v>
       </c>
-      <c r="C28" s="4">
-        <v>3</v>
-      </c>
-      <c r="D28" s="4">
-        <v>1</v>
-      </c>
-      <c r="E28" s="4">
-        <v>2</v>
-      </c>
-      <c r="F28" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="G28" s="4">
-        <v>3</v>
-      </c>
-      <c r="H28" s="4">
-        <v>0</v>
-      </c>
-      <c r="I28" s="4">
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>4.5</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
         <v>4.5</v>
       </c>
       <c r="J28" s="2">
         <f>I28+F28</f>
-        <v>10</v>
-      </c>
-      <c r="K28" s="4">
-        <v>4</v>
-      </c>
-      <c r="L28" s="4">
-        <v>1</v>
-      </c>
-      <c r="M28" s="4">
-        <v>7</v>
-      </c>
-      <c r="N28" s="4">
-        <v>3</v>
-      </c>
-      <c r="O28" s="4">
-        <v>0</v>
-      </c>
-      <c r="P28" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="Q28" s="4">
-        <v>21.5</v>
-      </c>
-      <c r="R28" s="4">
+        <v>9</v>
+      </c>
+      <c r="K28">
+        <v>4</v>
+      </c>
+      <c r="L28">
+        <v>3</v>
+      </c>
+      <c r="M28">
+        <v>9</v>
+      </c>
+      <c r="N28">
+        <v>3</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>4.5</v>
+      </c>
+      <c r="Q28">
+        <v>22.5</v>
+      </c>
+      <c r="R28">
         <v>13</v>
       </c>
-      <c r="S28" s="4">
-        <v>2</v>
-      </c>
-      <c r="T28" s="4">
-        <v>5</v>
-      </c>
-      <c r="U28" s="4">
-        <v>7</v>
-      </c>
-      <c r="V28" s="4">
-        <v>2</v>
-      </c>
-      <c r="W28" s="4">
-        <v>14</v>
+      <c r="S28">
+        <v>3</v>
+      </c>
+      <c r="T28">
+        <v>11</v>
+      </c>
+      <c r="U28">
+        <v>7</v>
+      </c>
+      <c r="V28">
+        <v>8</v>
+      </c>
+      <c r="W28">
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B29" s="5">
         <v>45369</v>
@@ -3140,48 +3166,48 @@
         <v>9</v>
       </c>
       <c r="K29" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L29" s="4">
         <v>1</v>
       </c>
       <c r="M29" s="4">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="N29" s="4">
         <v>3</v>
       </c>
       <c r="O29" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P29" s="4">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q29" s="4">
-        <v>21.5</v>
+        <v>22</v>
       </c>
       <c r="R29" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S29" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T29" s="4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="U29" s="4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="V29" s="4">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="W29" s="4">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B30" s="5">
         <v>45369</v>
@@ -3190,26 +3216,26 @@
         <v>3</v>
       </c>
       <c r="D30" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30" s="4">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="G30" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H30" s="4">
         <v>0</v>
       </c>
       <c r="I30" s="4">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="J30" s="2">
         <f>I30+F30</f>
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="K30" s="4">
         <v>4</v>
@@ -3230,22 +3256,22 @@
         <v>5.5</v>
       </c>
       <c r="Q30" s="4">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="R30" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S30" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T30" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U30" s="4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="V30" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="W30" s="4">
         <v>14</v>
@@ -3397,7 +3423,7 @@
     </row>
     <row r="33" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B33" s="5">
         <v>45369</v>
@@ -3406,71 +3432,71 @@
         <v>3</v>
       </c>
       <c r="D33" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33" s="4">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="G33" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H33" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" s="4">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="J33" s="2">
         <f>I33+F33</f>
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="K33" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L33" s="4">
         <v>1</v>
       </c>
       <c r="M33" s="4">
+        <v>7</v>
+      </c>
+      <c r="N33" s="4">
+        <v>3</v>
+      </c>
+      <c r="O33" s="4">
+        <v>1</v>
+      </c>
+      <c r="P33" s="4">
         <v>5.5</v>
       </c>
-      <c r="N33" s="4">
-        <v>2</v>
-      </c>
-      <c r="O33" s="4">
-        <v>0</v>
-      </c>
-      <c r="P33" s="4">
-        <v>3</v>
-      </c>
       <c r="Q33" s="4">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="R33" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S33" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T33" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U33" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V33" s="4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="W33" s="4">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W1">
+  <autoFilter ref="A1:W1" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W33">
-      <sortCondition descending="1" ref="Q1"/>
+      <sortCondition descending="1" ref="J1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Schedule Analysis/Championship Schedule Analysis.xlsx
+++ b/Schedule Analysis/Championship Schedule Analysis.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\Schedule Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F6ACAF48-03E8-4C8D-8242-0B9FA26C6C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4A93F9-01D8-420D-91BD-EE03EF15007D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule Analysis" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>Team</t>
   </si>
@@ -173,28 +173,22 @@
     <t>Opp</t>
   </si>
   <si>
-    <t>5G</t>
-  </si>
-  <si>
-    <t>15G</t>
-  </si>
-  <si>
-    <t>13G</t>
-  </si>
-  <si>
-    <t>3G</t>
-  </si>
-  <si>
-    <t>15GG</t>
-  </si>
-  <si>
-    <t>4G</t>
+    <t>8G</t>
+  </si>
+  <si>
+    <t>10GG</t>
+  </si>
+  <si>
+    <t>9G</t>
+  </si>
+  <si>
+    <t>12G</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1064,32 +1058,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.54296875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1136,7 +1130,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -1183,7 +1177,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -1230,7 +1224,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -1277,7 +1271,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -1324,7 +1318,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -1371,7 +1365,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -1418,7 +1412,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -1465,7 +1459,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -1512,7 +1506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -1559,7 +1553,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
@@ -1606,7 +1600,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1653,7 +1647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1700,7 +1694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1747,7 +1741,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1794,7 +1788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -1841,7 +1835,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -1888,7 +1882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -1935,7 +1929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1982,7 +1976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -2029,7 +2023,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -2076,7 +2070,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -2123,7 +2117,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -2170,7 +2164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>37</v>
       </c>
@@ -2217,7 +2211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>38</v>
       </c>
@@ -2264,7 +2258,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>39</v>
       </c>
@@ -2311,7 +2305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>40</v>
       </c>
@@ -2358,7 +2352,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>41</v>
       </c>
@@ -2405,7 +2399,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
@@ -2452,7 +2446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>43</v>
       </c>
@@ -2499,7 +2493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>44</v>
       </c>
@@ -2546,7 +2540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>45</v>
       </c>
@@ -2593,7 +2587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>46</v>
       </c>
@@ -2646,16 +2640,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -2666,114 +2660,136 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
-        <v>45373</v>
-      </c>
-      <c r="B2" t="s">
+        <v>45383</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>50</v>
       </c>
-      <c r="C2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
-        <v>45374</v>
-      </c>
-      <c r="B3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45384</v>
+      </c>
+      <c r="B3">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
-        <v>45375</v>
-      </c>
-      <c r="B4" t="s">
-        <v>52</v>
+        <v>45385</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
-        <v>45376</v>
+        <v>45386</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
+        <v>45387</v>
+      </c>
+      <c r="B6">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>45377</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
+        <v>45388</v>
+      </c>
+      <c r="B7">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
+        <v>45389</v>
+      </c>
+      <c r="B8">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
         <v>51</v>
       </c>
-      <c r="C6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>45378</v>
-      </c>
-      <c r="B7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>45379</v>
-      </c>
-      <c r="B8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
-        <v>45380</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45390</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
-        <v>45381</v>
-      </c>
-      <c r="B10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45391</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
-        <v>45382</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
+        <v>45392</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
+        <v>45393</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
+        <v>45394</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
+        <v>45395</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
+        <v>45396</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4">
+        <v>45398</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4">
+        <v>45399</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="4">
+        <v>45400</v>
       </c>
     </row>
   </sheetData>

--- a/Schedule Analysis/Championship Schedule Analysis.xlsx
+++ b/Schedule Analysis/Championship Schedule Analysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey_Model\Schedule Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\Schedule Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422EEE00-9822-4571-B123-2854AC33520D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B8E605-DD54-499F-8DBF-4CA798ED6D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="65">
   <si>
     <t>Team</t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t>Total Games Championship Weeks</t>
+  </si>
+  <si>
+    <t>Total Games Semis</t>
   </si>
 </sst>
 </file>
@@ -287,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -295,7 +298,6 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1558,10 +1560,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:W33"/>
+  <dimension ref="A1:X33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1580,12 +1582,14 @@
     <col min="13" max="13" width="22.7265625" customWidth="1"/>
     <col min="14" max="14" width="23.7265625" customWidth="1"/>
     <col min="15" max="15" width="18.7265625" customWidth="1"/>
-    <col min="16" max="18" width="13.7265625" customWidth="1"/>
-    <col min="19" max="19" width="19.7265625" customWidth="1"/>
-    <col min="20" max="23" width="12.7265625" customWidth="1"/>
+    <col min="16" max="17" width="13.7265625" customWidth="1"/>
+    <col min="18" max="18" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.36328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.7265625" customWidth="1"/>
+    <col min="21" max="24" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1638,429 +1642,452 @@
         <v>48</v>
       </c>
       <c r="R1" t="s">
+        <v>64</v>
+      </c>
+      <c r="S1" t="s">
         <v>63</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>49</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>50</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>51</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>52</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="5">
+        <v>45733</v>
+      </c>
+      <c r="C2" s="6">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6">
+        <v>2</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6">
+        <v>6.5</v>
+      </c>
+      <c r="G2" s="6">
+        <v>4</v>
+      </c>
+      <c r="H2" s="6">
+        <v>1</v>
+      </c>
+      <c r="I2" s="6">
+        <v>7</v>
+      </c>
+      <c r="J2" s="6">
+        <v>4</v>
+      </c>
+      <c r="K2" s="6">
+        <v>4</v>
+      </c>
+      <c r="L2" s="6">
         <v>10</v>
       </c>
-      <c r="B2" s="4">
+      <c r="M2" s="6">
+        <v>3</v>
+      </c>
+      <c r="N2" s="6">
+        <v>2</v>
+      </c>
+      <c r="O2" s="6">
+        <v>6.5</v>
+      </c>
+      <c r="P2" s="6">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>14</v>
+      </c>
+      <c r="R2" s="6">
+        <f>C2+G2</f>
+        <v>7</v>
+      </c>
+      <c r="S2" s="6">
+        <f>M2+J2</f>
+        <v>7</v>
+      </c>
+      <c r="T2">
+        <v>9</v>
+      </c>
+      <c r="U2">
+        <v>32</v>
+      </c>
+      <c r="V2">
+        <v>20</v>
+      </c>
+      <c r="W2">
+        <v>32</v>
+      </c>
+      <c r="X2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4">
         <v>45733</v>
       </c>
-      <c r="C2" s="2">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2">
-        <v>7</v>
-      </c>
-      <c r="G2" s="2">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
+      <c r="C3" s="2">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2">
+        <v>7</v>
+      </c>
+      <c r="G3" s="2">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
         <v>4.5</v>
       </c>
-      <c r="J2" s="2">
-        <v>4</v>
-      </c>
-      <c r="K2" s="2">
-        <v>1</v>
-      </c>
-      <c r="L2" s="2">
-        <v>7</v>
-      </c>
-      <c r="M2" s="2">
-        <v>4</v>
-      </c>
-      <c r="N2" s="2">
-        <v>4</v>
-      </c>
-      <c r="O2" s="2">
+      <c r="J3" s="2">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2">
+        <v>7</v>
+      </c>
+      <c r="M3" s="2">
+        <v>4</v>
+      </c>
+      <c r="N3" s="2">
+        <v>4</v>
+      </c>
+      <c r="O3" s="2">
         <v>10</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P3" s="2">
         <v>28.5</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q3" s="2">
         <v>15</v>
       </c>
-      <c r="R2" s="2">
-        <f>M2+J2</f>
-        <v>8</v>
-      </c>
-      <c r="S2">
-        <v>6</v>
-      </c>
-      <c r="T2">
-        <v>31</v>
-      </c>
-      <c r="U2">
-        <v>31</v>
-      </c>
-      <c r="V2">
-        <v>21</v>
-      </c>
-      <c r="W2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="5">
-        <v>45733</v>
-      </c>
-      <c r="C3" s="6">
-        <v>3</v>
-      </c>
-      <c r="D3" s="6">
-        <v>2</v>
-      </c>
-      <c r="E3" s="6">
-        <v>1</v>
-      </c>
-      <c r="F3" s="6">
-        <v>6.5</v>
-      </c>
-      <c r="G3" s="6">
-        <v>3</v>
-      </c>
-      <c r="H3" s="6">
-        <v>2</v>
-      </c>
-      <c r="I3" s="6">
-        <v>6.5</v>
-      </c>
-      <c r="J3" s="6">
-        <v>4</v>
-      </c>
-      <c r="K3" s="6">
-        <v>1</v>
-      </c>
-      <c r="L3" s="6">
-        <v>7</v>
-      </c>
-      <c r="M3" s="6">
-        <v>4</v>
-      </c>
-      <c r="N3" s="6">
-        <v>1</v>
-      </c>
-      <c r="O3" s="6">
-        <v>7</v>
-      </c>
-      <c r="P3" s="6">
-        <v>27</v>
-      </c>
-      <c r="Q3" s="6">
-        <v>14</v>
-      </c>
-      <c r="R3" s="6">
+      <c r="R3" s="2">
+        <f>C3+G3</f>
+        <v>7</v>
+      </c>
+      <c r="S3" s="2">
         <f>M3+J3</f>
         <v>8</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>6</v>
       </c>
-      <c r="T3">
+      <c r="U3">
+        <v>31</v>
+      </c>
+      <c r="V3">
+        <v>31</v>
+      </c>
+      <c r="W3">
+        <v>21</v>
+      </c>
+      <c r="X3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4">
+        <v>45733</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>8</v>
+      </c>
+      <c r="G4" s="2">
+        <v>4</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>7</v>
+      </c>
+      <c r="J4" s="2">
+        <v>3</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="M4" s="2">
+        <v>4</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1</v>
+      </c>
+      <c r="O4" s="2">
+        <v>7</v>
+      </c>
+      <c r="P4" s="2">
+        <v>27.5</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>15</v>
+      </c>
+      <c r="R4" s="2">
+        <f>C4+G4</f>
+        <v>8</v>
+      </c>
+      <c r="S4" s="2">
+        <f>M4+J4</f>
+        <v>7</v>
+      </c>
+      <c r="T4">
+        <v>5</v>
+      </c>
+      <c r="U4">
+        <v>30</v>
+      </c>
+      <c r="V4">
+        <v>31</v>
+      </c>
+      <c r="W4">
+        <v>13</v>
+      </c>
+      <c r="X4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="5">
+        <v>45733</v>
+      </c>
+      <c r="C5" s="6">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6">
+        <v>2</v>
+      </c>
+      <c r="E5" s="6">
+        <v>2</v>
+      </c>
+      <c r="F5" s="6">
+        <v>8</v>
+      </c>
+      <c r="G5" s="6">
+        <v>4</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1</v>
+      </c>
+      <c r="I5" s="6">
+        <v>7</v>
+      </c>
+      <c r="J5" s="6">
+        <v>2</v>
+      </c>
+      <c r="K5" s="6">
+        <v>1</v>
+      </c>
+      <c r="L5" s="6">
+        <v>4</v>
+      </c>
+      <c r="M5" s="6">
+        <v>4</v>
+      </c>
+      <c r="N5" s="6">
+        <v>2</v>
+      </c>
+      <c r="O5" s="6">
+        <v>8</v>
+      </c>
+      <c r="P5" s="6">
+        <v>27</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>14</v>
+      </c>
+      <c r="R5" s="6">
+        <f>C5+G5</f>
+        <v>8</v>
+      </c>
+      <c r="S5" s="6">
+        <f>M5+J5</f>
+        <v>6</v>
+      </c>
+      <c r="T5">
+        <v>6</v>
+      </c>
+      <c r="U5">
         <v>26</v>
       </c>
-      <c r="U3">
+      <c r="V5">
         <v>20</v>
       </c>
-      <c r="V3">
+      <c r="W5">
         <v>21</v>
       </c>
-      <c r="W3">
+      <c r="X5">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="5">
-        <v>45733</v>
-      </c>
-      <c r="C4" s="6">
-        <v>3</v>
-      </c>
-      <c r="D4" s="6">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6">
-        <v>2</v>
-      </c>
-      <c r="F4" s="6">
-        <v>5.5</v>
-      </c>
-      <c r="G4" s="6">
-        <v>3</v>
-      </c>
-      <c r="H4" s="6">
-        <v>0</v>
-      </c>
-      <c r="I4" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="J4" s="6">
-        <v>4</v>
-      </c>
-      <c r="K4" s="6">
-        <v>2</v>
-      </c>
-      <c r="L4" s="6">
-        <v>8</v>
-      </c>
-      <c r="M4" s="6">
-        <v>4</v>
-      </c>
-      <c r="N4" s="6">
-        <v>1</v>
-      </c>
-      <c r="O4" s="6">
-        <v>7</v>
-      </c>
-      <c r="P4" s="6">
-        <v>25</v>
-      </c>
-      <c r="Q4" s="6">
-        <v>14</v>
-      </c>
-      <c r="R4" s="6">
-        <f>M4+J4</f>
-        <v>8</v>
-      </c>
-      <c r="S4">
-        <v>4</v>
-      </c>
-      <c r="T4">
-        <v>16</v>
-      </c>
-      <c r="U4">
-        <v>20</v>
-      </c>
-      <c r="V4">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="W4">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4">
-        <v>45733</v>
-      </c>
-      <c r="C5" s="2">
-        <v>4</v>
-      </c>
-      <c r="D5" s="2">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2">
-        <v>2</v>
-      </c>
-      <c r="F5" s="2">
-        <v>8</v>
-      </c>
-      <c r="G5" s="2">
-        <v>4</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1</v>
-      </c>
-      <c r="I5" s="2">
-        <v>7</v>
-      </c>
-      <c r="J5" s="2">
-        <v>3</v>
-      </c>
-      <c r="K5" s="2">
-        <v>1</v>
-      </c>
-      <c r="L5" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="M5" s="2">
-        <v>4</v>
-      </c>
-      <c r="N5" s="2">
-        <v>1</v>
-      </c>
-      <c r="O5" s="2">
-        <v>7</v>
-      </c>
-      <c r="P5" s="2">
-        <v>27.5</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>15</v>
-      </c>
-      <c r="R5" s="2">
-        <f>M5+J5</f>
-        <v>7</v>
-      </c>
-      <c r="S5">
-        <v>5</v>
-      </c>
-      <c r="T5">
-        <v>30</v>
-      </c>
-      <c r="U5">
-        <v>31</v>
-      </c>
-      <c r="V5">
-        <v>13</v>
-      </c>
-      <c r="W5">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="B6" s="5">
         <v>45733</v>
       </c>
       <c r="C6" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" s="6">
         <v>2</v>
       </c>
       <c r="E6" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" s="6">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="G6" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H6" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="6">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="J6" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K6" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L6" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="M6" s="6">
+        <v>4</v>
+      </c>
+      <c r="N6" s="6">
+        <v>4</v>
+      </c>
+      <c r="O6" s="6">
         <v>10</v>
       </c>
-      <c r="M6" s="6">
-        <v>3</v>
-      </c>
-      <c r="N6" s="6">
-        <v>2</v>
-      </c>
-      <c r="O6" s="6">
-        <v>6.5</v>
-      </c>
       <c r="P6" s="6">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q6" s="6">
         <v>14</v>
       </c>
       <c r="R6" s="6">
+        <f>C6+G6</f>
+        <v>7</v>
+      </c>
+      <c r="S6" s="6">
         <f>M6+J6</f>
         <v>7</v>
       </c>
-      <c r="S6">
-        <v>9</v>
-      </c>
       <c r="T6">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="U6">
+        <v>26</v>
+      </c>
+      <c r="V6">
         <v>20</v>
       </c>
-      <c r="V6">
-        <v>32</v>
-      </c>
       <c r="W6">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+      <c r="X6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B7" s="5">
         <v>45733</v>
       </c>
       <c r="C7" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" s="6">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="G7" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I7" s="6">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="J7" s="6">
         <v>3</v>
       </c>
       <c r="K7" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L7" s="6">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="M7" s="6">
         <v>4</v>
       </c>
       <c r="N7" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O7" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P7" s="6">
         <v>27</v>
@@ -2069,28 +2096,32 @@
         <v>14</v>
       </c>
       <c r="R7" s="6">
+        <f>C7+G7</f>
+        <v>7</v>
+      </c>
+      <c r="S7" s="6">
         <f>M7+J7</f>
         <v>7</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>6</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>26</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>20</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>21</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B8" s="5">
         <v>45733</v>
@@ -2099,31 +2130,31 @@
         <v>3</v>
       </c>
       <c r="D8" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E8" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8" s="6">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="G8" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H8" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" s="6">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="J8" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K8" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8" s="6">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M8" s="6">
         <v>4</v>
@@ -2141,604 +2172,640 @@
         <v>14</v>
       </c>
       <c r="R8" s="6">
+        <f>C8+G8</f>
+        <v>6</v>
+      </c>
+      <c r="S8" s="6">
         <f>M8+J8</f>
-        <v>7</v>
-      </c>
-      <c r="S8">
+        <v>8</v>
+      </c>
+      <c r="T8">
         <v>6</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>26</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>20</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>21</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45733</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>7.5</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>7.5</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>4.5</v>
+      </c>
+      <c r="P9">
+        <v>26.5</v>
+      </c>
+      <c r="Q9">
+        <v>13</v>
+      </c>
+      <c r="R9">
+        <f>C9+G9</f>
+        <v>7</v>
+      </c>
+      <c r="S9">
+        <f>M9+J9</f>
+        <v>6</v>
+      </c>
+      <c r="T9">
+        <v>7</v>
+      </c>
+      <c r="U9">
+        <v>24</v>
+      </c>
+      <c r="V9">
+        <v>8</v>
+      </c>
+      <c r="W9">
+        <v>29</v>
+      </c>
+      <c r="X9">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45733</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>5.5</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>7.5</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>4.5</v>
+      </c>
+      <c r="M10">
+        <v>4</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
+      <c r="O10">
+        <v>9</v>
+      </c>
+      <c r="P10">
+        <v>26.5</v>
+      </c>
+      <c r="Q10">
+        <v>13</v>
+      </c>
+      <c r="R10">
+        <f>C10+G10</f>
+        <v>6</v>
+      </c>
+      <c r="S10">
+        <f>M10+J10</f>
+        <v>7</v>
+      </c>
+      <c r="T10">
+        <v>7</v>
+      </c>
+      <c r="U10">
+        <v>24</v>
+      </c>
+      <c r="V10">
+        <v>8</v>
+      </c>
+      <c r="W10">
+        <v>29</v>
+      </c>
+      <c r="X10">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="1">
+        <v>45733</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>4.5</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>10</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>6.5</v>
+      </c>
+      <c r="M11">
+        <v>3</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>4.5</v>
+      </c>
+      <c r="P11">
+        <v>25.5</v>
+      </c>
+      <c r="Q11">
+        <v>13</v>
+      </c>
+      <c r="R11">
+        <f>C11+G11</f>
+        <v>7</v>
+      </c>
+      <c r="S11">
+        <f>M11+J11</f>
+        <v>6</v>
+      </c>
+      <c r="T11">
+        <v>6</v>
+      </c>
+      <c r="U11">
+        <v>22</v>
+      </c>
+      <c r="V11">
+        <v>8</v>
+      </c>
+      <c r="W11">
+        <v>21</v>
+      </c>
+      <c r="X11">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1">
+        <v>45733</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>5.5</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>6.5</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>6.5</v>
+      </c>
+      <c r="M12">
+        <v>4</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>7</v>
+      </c>
+      <c r="P12">
+        <v>25.5</v>
+      </c>
+      <c r="Q12">
+        <v>13</v>
+      </c>
+      <c r="R12">
+        <f>C12+G12</f>
+        <v>6</v>
+      </c>
+      <c r="S12">
+        <f>M12+J12</f>
+        <v>7</v>
+      </c>
+      <c r="T12">
+        <v>6</v>
+      </c>
+      <c r="U12">
+        <v>22</v>
+      </c>
+      <c r="V12">
+        <v>8</v>
+      </c>
+      <c r="W12">
+        <v>21</v>
+      </c>
+      <c r="X12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="5">
+        <v>45733</v>
+      </c>
+      <c r="C13" s="6">
+        <v>4</v>
+      </c>
+      <c r="D13" s="6">
+        <v>2</v>
+      </c>
+      <c r="E13" s="6">
+        <v>2</v>
+      </c>
+      <c r="F13" s="6">
+        <v>8</v>
+      </c>
+      <c r="G13" s="6">
+        <v>4</v>
+      </c>
+      <c r="H13" s="6">
+        <v>1</v>
+      </c>
+      <c r="I13" s="6">
+        <v>7</v>
+      </c>
+      <c r="J13" s="6">
+        <v>3</v>
+      </c>
+      <c r="K13" s="6">
+        <v>0</v>
+      </c>
+      <c r="L13" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="M13" s="6">
+        <v>3</v>
+      </c>
+      <c r="N13" s="6">
+        <v>1</v>
+      </c>
+      <c r="O13" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="P13" s="6">
+        <v>25</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>14</v>
+      </c>
+      <c r="R13" s="6">
+        <f>C13+G13</f>
+        <v>8</v>
+      </c>
+      <c r="S13" s="6">
+        <f>M13+J13</f>
+        <v>6</v>
+      </c>
+      <c r="T13">
+        <v>4</v>
+      </c>
+      <c r="U13">
+        <v>16</v>
+      </c>
+      <c r="V13">
+        <v>20</v>
+      </c>
+      <c r="W13">
+        <v>5</v>
+      </c>
+      <c r="X13">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B14" s="5">
         <v>45733</v>
       </c>
-      <c r="C9" s="6">
-        <v>3</v>
-      </c>
-      <c r="D9" s="6">
-        <v>0</v>
-      </c>
-      <c r="E9" s="6">
-        <v>3</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="C14" s="6">
+        <v>3</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6">
+        <v>3</v>
+      </c>
+      <c r="F14" s="6">
         <v>4.5</v>
       </c>
-      <c r="G9" s="6">
-        <v>4</v>
-      </c>
-      <c r="H9" s="6">
-        <v>2</v>
-      </c>
-      <c r="I9" s="6">
+      <c r="G14" s="6">
+        <v>4</v>
+      </c>
+      <c r="H14" s="6">
+        <v>2</v>
+      </c>
+      <c r="I14" s="6">
         <v>8</v>
       </c>
-      <c r="J9" s="6">
-        <v>4</v>
-      </c>
-      <c r="K9" s="6">
-        <v>2</v>
-      </c>
-      <c r="L9" s="6">
+      <c r="J14" s="6">
+        <v>4</v>
+      </c>
+      <c r="K14" s="6">
+        <v>2</v>
+      </c>
+      <c r="L14" s="6">
         <v>8</v>
       </c>
-      <c r="M9" s="6">
-        <v>3</v>
-      </c>
-      <c r="N9" s="6">
-        <v>0</v>
-      </c>
-      <c r="O9" s="6">
+      <c r="M14" s="6">
+        <v>3</v>
+      </c>
+      <c r="N14" s="6">
+        <v>0</v>
+      </c>
+      <c r="O14" s="6">
         <v>4.5</v>
       </c>
-      <c r="P9" s="6">
+      <c r="P14" s="6">
         <v>25</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="Q14" s="6">
         <v>14</v>
       </c>
-      <c r="R9" s="6">
-        <f>M9+J9</f>
-        <v>7</v>
-      </c>
-      <c r="S9">
-        <v>4</v>
-      </c>
-      <c r="T9">
+      <c r="R14" s="6">
+        <f>C14+G14</f>
+        <v>7</v>
+      </c>
+      <c r="S14" s="6">
+        <f>M14+J14</f>
+        <v>7</v>
+      </c>
+      <c r="T14">
+        <v>4</v>
+      </c>
+      <c r="U14">
         <v>16</v>
       </c>
-      <c r="U9">
+      <c r="V14">
         <v>20</v>
       </c>
-      <c r="V9">
+      <c r="W14">
         <v>5</v>
       </c>
-      <c r="W9">
+      <c r="X14">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B15" s="5">
         <v>45733</v>
       </c>
-      <c r="C10" s="6">
-        <v>3</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0</v>
-      </c>
-      <c r="E10" s="6">
-        <v>3</v>
-      </c>
-      <c r="F10" s="6">
+      <c r="C15" s="6">
+        <v>3</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6">
+        <v>3</v>
+      </c>
+      <c r="F15" s="6">
         <v>4.5</v>
       </c>
-      <c r="G10" s="6">
-        <v>4</v>
-      </c>
-      <c r="H10" s="6">
-        <v>2</v>
-      </c>
-      <c r="I10" s="6">
+      <c r="G15" s="6">
+        <v>4</v>
+      </c>
+      <c r="H15" s="6">
+        <v>2</v>
+      </c>
+      <c r="I15" s="6">
         <v>8</v>
       </c>
-      <c r="J10" s="6">
-        <v>4</v>
-      </c>
-      <c r="K10" s="6">
-        <v>1</v>
-      </c>
-      <c r="L10" s="6">
-        <v>7</v>
-      </c>
-      <c r="M10" s="6">
-        <v>3</v>
-      </c>
-      <c r="N10" s="6">
-        <v>1</v>
-      </c>
-      <c r="O10" s="6">
+      <c r="J15" s="6">
+        <v>4</v>
+      </c>
+      <c r="K15" s="6">
+        <v>1</v>
+      </c>
+      <c r="L15" s="6">
+        <v>7</v>
+      </c>
+      <c r="M15" s="6">
+        <v>3</v>
+      </c>
+      <c r="N15" s="6">
+        <v>1</v>
+      </c>
+      <c r="O15" s="6">
         <v>5.5</v>
       </c>
-      <c r="P10" s="6">
+      <c r="P15" s="6">
         <v>25</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="Q15" s="6">
         <v>14</v>
       </c>
-      <c r="R10" s="6">
-        <f>M10+J10</f>
-        <v>7</v>
-      </c>
-      <c r="S10">
-        <v>4</v>
-      </c>
-      <c r="T10">
+      <c r="R15" s="6">
+        <f>C15+G15</f>
+        <v>7</v>
+      </c>
+      <c r="S15" s="6">
+        <f>M15+J15</f>
+        <v>7</v>
+      </c>
+      <c r="T15">
+        <v>4</v>
+      </c>
+      <c r="U15">
         <v>16</v>
       </c>
-      <c r="U10">
+      <c r="V15">
         <v>20</v>
       </c>
-      <c r="V10">
+      <c r="W15">
         <v>5</v>
       </c>
-      <c r="W10">
+      <c r="X15">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B16" s="5">
         <v>45733</v>
       </c>
-      <c r="C11" s="6">
-        <v>3</v>
-      </c>
-      <c r="D11" s="6">
-        <v>0</v>
-      </c>
-      <c r="E11" s="6">
-        <v>3</v>
-      </c>
-      <c r="F11" s="6">
+      <c r="C16" s="6">
+        <v>3</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
+        <v>3</v>
+      </c>
+      <c r="F16" s="6">
         <v>4.5</v>
       </c>
-      <c r="G11" s="6">
-        <v>4</v>
-      </c>
-      <c r="H11" s="6">
-        <v>1</v>
-      </c>
-      <c r="I11" s="6">
-        <v>7</v>
-      </c>
-      <c r="J11" s="6">
-        <v>4</v>
-      </c>
-      <c r="K11" s="6">
-        <v>1</v>
-      </c>
-      <c r="L11" s="6">
-        <v>7</v>
-      </c>
-      <c r="M11" s="6">
-        <v>3</v>
-      </c>
-      <c r="N11" s="6">
-        <v>2</v>
-      </c>
-      <c r="O11" s="6">
+      <c r="G16" s="6">
+        <v>4</v>
+      </c>
+      <c r="H16" s="6">
+        <v>1</v>
+      </c>
+      <c r="I16" s="6">
+        <v>7</v>
+      </c>
+      <c r="J16" s="6">
+        <v>4</v>
+      </c>
+      <c r="K16" s="6">
+        <v>1</v>
+      </c>
+      <c r="L16" s="6">
+        <v>7</v>
+      </c>
+      <c r="M16" s="6">
+        <v>3</v>
+      </c>
+      <c r="N16" s="6">
+        <v>2</v>
+      </c>
+      <c r="O16" s="6">
         <v>6.5</v>
       </c>
-      <c r="P11" s="6">
+      <c r="P16" s="6">
         <v>25</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="Q16" s="6">
         <v>14</v>
       </c>
-      <c r="R11" s="6">
-        <f>M11+J11</f>
-        <v>7</v>
-      </c>
-      <c r="S11">
-        <v>4</v>
-      </c>
-      <c r="T11">
+      <c r="R16" s="6">
+        <f>C16+G16</f>
+        <v>7</v>
+      </c>
+      <c r="S16" s="6">
+        <f>M16+J16</f>
+        <v>7</v>
+      </c>
+      <c r="T16">
+        <v>4</v>
+      </c>
+      <c r="U16">
         <v>16</v>
       </c>
-      <c r="U11">
+      <c r="V16">
         <v>20</v>
       </c>
-      <c r="V11">
+      <c r="W16">
         <v>5</v>
       </c>
-      <c r="W11">
+      <c r="X16">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="5">
-        <v>45733</v>
-      </c>
-      <c r="C12" s="6">
-        <v>4</v>
-      </c>
-      <c r="D12" s="6">
-        <v>1</v>
-      </c>
-      <c r="E12" s="6">
-        <v>3</v>
-      </c>
-      <c r="F12" s="6">
-        <v>7</v>
-      </c>
-      <c r="G12" s="6">
-        <v>3</v>
-      </c>
-      <c r="H12" s="6">
-        <v>0</v>
-      </c>
-      <c r="I12" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="J12" s="6">
-        <v>4</v>
-      </c>
-      <c r="K12" s="6">
-        <v>2</v>
-      </c>
-      <c r="L12" s="6">
-        <v>8</v>
-      </c>
-      <c r="M12" s="6">
-        <v>3</v>
-      </c>
-      <c r="N12" s="6">
-        <v>0</v>
-      </c>
-      <c r="O12" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="P12" s="6">
-        <v>24</v>
-      </c>
-      <c r="Q12" s="6">
-        <v>14</v>
-      </c>
-      <c r="R12" s="6">
-        <f>M12+J12</f>
-        <v>7</v>
-      </c>
-      <c r="S12">
-        <v>3</v>
-      </c>
-      <c r="T12">
-        <v>10</v>
-      </c>
-      <c r="U12">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>20</v>
-      </c>
-      <c r="V12">
-        <v>1</v>
-      </c>
-      <c r="W12">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="1">
-        <v>45733</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>5.5</v>
-      </c>
-      <c r="G13">
-        <v>3</v>
-      </c>
-      <c r="H13">
-        <v>3</v>
-      </c>
-      <c r="I13">
-        <v>7.5</v>
-      </c>
-      <c r="J13">
-        <v>3</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>4.5</v>
-      </c>
-      <c r="M13">
-        <v>4</v>
-      </c>
-      <c r="N13">
-        <v>3</v>
-      </c>
-      <c r="O13">
-        <v>9</v>
-      </c>
-      <c r="P13">
-        <v>26.5</v>
-      </c>
-      <c r="Q13">
-        <v>13</v>
-      </c>
-      <c r="R13" s="7">
-        <f>M13+J13</f>
-        <v>7</v>
-      </c>
-      <c r="S13">
-        <v>7</v>
-      </c>
-      <c r="T13">
-        <v>24</v>
-      </c>
-      <c r="U13">
-        <v>8</v>
-      </c>
-      <c r="V13">
-        <v>29</v>
-      </c>
-      <c r="W13">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="1">
-        <v>45733</v>
-      </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>5.5</v>
-      </c>
-      <c r="G14">
-        <v>3</v>
-      </c>
-      <c r="H14">
-        <v>2</v>
-      </c>
-      <c r="I14">
-        <v>6.5</v>
-      </c>
-      <c r="J14">
-        <v>3</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>6.5</v>
-      </c>
-      <c r="M14">
-        <v>4</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>7</v>
-      </c>
-      <c r="P14">
-        <v>25.5</v>
-      </c>
-      <c r="Q14">
-        <v>13</v>
-      </c>
-      <c r="R14" s="7">
-        <f>M14+J14</f>
-        <v>7</v>
-      </c>
-      <c r="S14">
-        <v>6</v>
-      </c>
-      <c r="T14">
-        <v>22</v>
-      </c>
-      <c r="U14">
-        <v>8</v>
-      </c>
-      <c r="V14">
-        <v>21</v>
-      </c>
-      <c r="W14">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="1">
-        <v>45733</v>
-      </c>
-      <c r="C15">
-        <v>4</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>8</v>
-      </c>
-      <c r="G15">
-        <v>2</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>4</v>
-      </c>
-      <c r="J15">
-        <v>4</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>7</v>
-      </c>
-      <c r="M15">
-        <v>3</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>5.5</v>
-      </c>
-      <c r="P15">
-        <v>24.5</v>
-      </c>
-      <c r="Q15">
-        <v>13</v>
-      </c>
-      <c r="R15" s="7">
-        <f>M15+J15</f>
-        <v>7</v>
-      </c>
-      <c r="S15">
-        <v>5</v>
-      </c>
-      <c r="T15">
-        <v>12</v>
-      </c>
-      <c r="U15">
-        <v>8</v>
-      </c>
-      <c r="V15">
-        <v>13</v>
-      </c>
-      <c r="W15">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="1">
-        <v>45733</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>5.5</v>
-      </c>
-      <c r="G16">
-        <v>3</v>
-      </c>
-      <c r="H16">
-        <v>2</v>
-      </c>
-      <c r="I16">
-        <v>6.5</v>
-      </c>
-      <c r="J16">
-        <v>3</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>4.5</v>
-      </c>
-      <c r="M16">
-        <v>4</v>
-      </c>
-      <c r="N16">
-        <v>2</v>
-      </c>
-      <c r="O16">
-        <v>8</v>
-      </c>
-      <c r="P16">
-        <v>24.5</v>
-      </c>
-      <c r="Q16">
-        <v>13</v>
-      </c>
-      <c r="R16" s="7">
-        <f>M16+J16</f>
-        <v>7</v>
-      </c>
-      <c r="S16">
-        <v>5</v>
-      </c>
-      <c r="T16">
-        <v>12</v>
-      </c>
-      <c r="U16">
-        <v>8</v>
-      </c>
-      <c r="V16">
-        <v>13</v>
-      </c>
-      <c r="W16">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>30</v>
       </c>
       <c r="B17" s="1">
         <v>45733</v>
@@ -2747,214 +2814,226 @@
         <v>3</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
+        <v>5.5</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>9</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>4</v>
+      </c>
+      <c r="M17">
+        <v>3</v>
+      </c>
+      <c r="N17">
+        <v>2</v>
+      </c>
+      <c r="O17">
+        <v>6.5</v>
+      </c>
+      <c r="P17">
+        <v>25</v>
+      </c>
+      <c r="Q17">
+        <v>12</v>
+      </c>
+      <c r="R17">
+        <f>C17+G17</f>
+        <v>7</v>
+      </c>
+      <c r="S17">
+        <f>M17+J17</f>
+        <v>5</v>
+      </c>
+      <c r="T17">
+        <v>7</v>
+      </c>
+      <c r="U17">
+        <v>16</v>
+      </c>
+      <c r="V17">
+        <v>1</v>
+      </c>
+      <c r="W17">
+        <v>29</v>
+      </c>
+      <c r="X17">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="5">
+        <v>45733</v>
+      </c>
+      <c r="C18" s="6">
+        <v>3</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1</v>
+      </c>
+      <c r="E18" s="6">
+        <v>2</v>
+      </c>
+      <c r="F18" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="G18" s="6">
+        <v>3</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0</v>
+      </c>
+      <c r="I18" s="6">
         <v>4.5</v>
       </c>
-      <c r="G17">
-        <v>3</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>5.5</v>
-      </c>
-      <c r="J17">
-        <v>3</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>4.5</v>
-      </c>
-      <c r="M17">
-        <v>4</v>
-      </c>
-      <c r="N17">
-        <v>4</v>
-      </c>
-      <c r="O17">
-        <v>10</v>
-      </c>
-      <c r="P17">
-        <v>24.5</v>
-      </c>
-      <c r="Q17">
-        <v>13</v>
-      </c>
-      <c r="R17" s="7">
-        <f>M17+J17</f>
-        <v>7</v>
-      </c>
-      <c r="S17">
+      <c r="J18" s="6">
+        <v>4</v>
+      </c>
+      <c r="K18" s="6">
+        <v>2</v>
+      </c>
+      <c r="L18" s="6">
+        <v>8</v>
+      </c>
+      <c r="M18" s="6">
+        <v>4</v>
+      </c>
+      <c r="N18" s="6">
+        <v>1</v>
+      </c>
+      <c r="O18" s="6">
+        <v>7</v>
+      </c>
+      <c r="P18" s="6">
+        <v>25</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>14</v>
+      </c>
+      <c r="R18" s="6">
+        <f>C18+G18</f>
+        <v>6</v>
+      </c>
+      <c r="S18" s="6">
+        <f>M18+J18</f>
+        <v>8</v>
+      </c>
+      <c r="T18">
+        <v>4</v>
+      </c>
+      <c r="U18">
+        <v>16</v>
+      </c>
+      <c r="V18">
+        <v>20</v>
+      </c>
+      <c r="W18">
         <v>5</v>
       </c>
-      <c r="T17">
-        <v>12</v>
-      </c>
-      <c r="U17">
+      <c r="X18">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>8</v>
-      </c>
-      <c r="V17">
-        <v>13</v>
-      </c>
-      <c r="W17">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="1">
-        <v>45733</v>
-      </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>4.5</v>
-      </c>
-      <c r="G18">
-        <v>3</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>5.5</v>
-      </c>
-      <c r="J18">
-        <v>4</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>9</v>
-      </c>
-      <c r="M18">
-        <v>3</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>5.5</v>
-      </c>
-      <c r="P18">
-        <v>24.5</v>
-      </c>
-      <c r="Q18">
-        <v>13</v>
-      </c>
-      <c r="R18" s="7">
-        <f>M18+J18</f>
-        <v>7</v>
-      </c>
-      <c r="S18">
-        <v>5</v>
-      </c>
-      <c r="T18">
-        <v>12</v>
-      </c>
-      <c r="U18">
-        <v>8</v>
-      </c>
-      <c r="V18">
-        <v>13</v>
-      </c>
-      <c r="W18">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="B19" s="1">
         <v>45733</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
+        <v>8</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>4</v>
+      </c>
+      <c r="J19">
+        <v>4</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>7</v>
+      </c>
+      <c r="M19">
+        <v>3</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
         <v>5.5</v>
       </c>
-      <c r="G19">
-        <v>3</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>4.5</v>
-      </c>
-      <c r="J19">
-        <v>3</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19">
-        <v>6.5</v>
-      </c>
-      <c r="M19">
-        <v>4</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>7</v>
-      </c>
       <c r="P19">
-        <v>23.5</v>
+        <v>24.5</v>
       </c>
       <c r="Q19">
         <v>13</v>
       </c>
-      <c r="R19" s="7">
+      <c r="R19">
+        <f>C19+G19</f>
+        <v>6</v>
+      </c>
+      <c r="S19">
         <f>M19+J19</f>
         <v>7</v>
       </c>
-      <c r="S19">
-        <v>4</v>
-      </c>
       <c r="T19">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="U19">
+        <v>12</v>
+      </c>
+      <c r="V19">
         <v>8</v>
       </c>
-      <c r="V19">
-        <v>5</v>
-      </c>
       <c r="W19">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
+      </c>
+      <c r="X19">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>21</v>
       </c>
       <c r="B20" s="1">
         <v>45733</v>
@@ -2975,58 +3054,62 @@
         <v>3</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="J20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="M20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O20">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="P20">
-        <v>22.5</v>
+        <v>24.5</v>
       </c>
       <c r="Q20">
         <v>13</v>
       </c>
-      <c r="R20" s="7">
+      <c r="R20">
+        <f>C20+G20</f>
+        <v>6</v>
+      </c>
+      <c r="S20">
         <f>M20+J20</f>
         <v>7</v>
       </c>
-      <c r="S20">
-        <v>3</v>
-      </c>
       <c r="T20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U20">
+        <v>12</v>
+      </c>
+      <c r="V20">
         <v>8</v>
       </c>
-      <c r="V20">
-        <v>1</v>
-      </c>
       <c r="W20">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="X20">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>30</v>
       </c>
       <c r="B21" s="1">
         <v>45733</v>
@@ -3035,85 +3118,89 @@
         <v>3</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
+        <v>4.5</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
         <v>5.5</v>
       </c>
-      <c r="G21">
-        <v>2</v>
-      </c>
-      <c r="H21">
-        <v>2</v>
-      </c>
-      <c r="I21">
+      <c r="J21">
+        <v>3</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>4.5</v>
+      </c>
+      <c r="M21">
+        <v>4</v>
+      </c>
+      <c r="N21">
+        <v>4</v>
+      </c>
+      <c r="O21">
+        <v>10</v>
+      </c>
+      <c r="P21">
+        <v>24.5</v>
+      </c>
+      <c r="Q21">
+        <v>13</v>
+      </c>
+      <c r="R21">
+        <f>C21+G21</f>
+        <v>6</v>
+      </c>
+      <c r="S21">
+        <f>M21+J21</f>
+        <v>7</v>
+      </c>
+      <c r="T21">
         <v>5</v>
       </c>
-      <c r="J21">
-        <v>4</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
+      <c r="U21">
+        <v>12</v>
+      </c>
+      <c r="V21">
         <v>8</v>
       </c>
-      <c r="M21">
-        <v>3</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>4.5</v>
-      </c>
-      <c r="P21">
-        <v>23</v>
-      </c>
-      <c r="Q21">
-        <v>12</v>
-      </c>
-      <c r="R21" s="7">
-        <f>M21+J21</f>
-        <v>7</v>
-      </c>
-      <c r="S21">
-        <v>5</v>
-      </c>
-      <c r="T21">
-        <v>6</v>
-      </c>
-      <c r="U21">
-        <v>1</v>
-      </c>
-      <c r="V21">
+      <c r="W21">
         <v>13</v>
       </c>
-      <c r="W21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>34</v>
+      <c r="X21">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>31</v>
       </c>
       <c r="B22" s="1">
         <v>45733</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -3125,52 +3212,56 @@
         <v>5.5</v>
       </c>
       <c r="J22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="M22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="P22">
-        <v>23</v>
+        <v>24.5</v>
       </c>
       <c r="Q22">
+        <v>13</v>
+      </c>
+      <c r="R22">
+        <f>C22+G22</f>
+        <v>6</v>
+      </c>
+      <c r="S22">
+        <f>M22+J22</f>
+        <v>7</v>
+      </c>
+      <c r="T22">
+        <v>5</v>
+      </c>
+      <c r="U22">
         <v>12</v>
       </c>
-      <c r="R22" s="7">
-        <f>M22+J22</f>
-        <v>7</v>
-      </c>
-      <c r="S22">
-        <v>5</v>
-      </c>
-      <c r="T22">
-        <v>6</v>
-      </c>
-      <c r="U22">
-        <v>1</v>
-      </c>
       <c r="V22">
+        <v>8</v>
+      </c>
+      <c r="W22">
         <v>13</v>
       </c>
-      <c r="W22">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
-        <v>6</v>
+      <c r="X22">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>12</v>
       </c>
       <c r="B23" s="5">
         <v>45733</v>
@@ -3179,382 +3270,402 @@
         <v>4</v>
       </c>
       <c r="D23" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23" s="6">
+        <v>7</v>
+      </c>
+      <c r="G23" s="6">
+        <v>3</v>
+      </c>
+      <c r="H23" s="6">
+        <v>0</v>
+      </c>
+      <c r="I23" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="J23" s="6">
+        <v>4</v>
+      </c>
+      <c r="K23" s="6">
+        <v>2</v>
+      </c>
+      <c r="L23" s="6">
         <v>8</v>
       </c>
-      <c r="G23" s="6">
-        <v>4</v>
-      </c>
-      <c r="H23" s="6">
-        <v>1</v>
-      </c>
-      <c r="I23" s="6">
-        <v>7</v>
-      </c>
-      <c r="J23" s="6">
-        <v>2</v>
-      </c>
-      <c r="K23" s="6">
-        <v>1</v>
-      </c>
-      <c r="L23" s="6">
-        <v>4</v>
-      </c>
       <c r="M23" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N23" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O23" s="6">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="P23" s="6">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Q23" s="6">
         <v>14</v>
       </c>
       <c r="R23" s="6">
+        <f>C23+G23</f>
+        <v>7</v>
+      </c>
+      <c r="S23" s="6">
         <f>M23+J23</f>
+        <v>7</v>
+      </c>
+      <c r="T23">
+        <v>3</v>
+      </c>
+      <c r="U23">
+        <v>10</v>
+      </c>
+      <c r="V23">
+        <v>20</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="1">
+        <v>45733</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>6.5</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>5.5</v>
+      </c>
+      <c r="J24">
+        <v>3</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>5.5</v>
+      </c>
+      <c r="M24">
+        <v>3</v>
+      </c>
+      <c r="N24">
+        <v>2</v>
+      </c>
+      <c r="O24">
+        <v>6.5</v>
+      </c>
+      <c r="P24">
+        <v>24</v>
+      </c>
+      <c r="Q24">
+        <v>12</v>
+      </c>
+      <c r="R24">
+        <f>C24+G24</f>
         <v>6</v>
       </c>
-      <c r="S23">
-        <v>6</v>
-      </c>
-      <c r="T23">
-        <v>26</v>
-      </c>
-      <c r="U23">
-        <v>20</v>
-      </c>
-      <c r="V23">
-        <v>21</v>
-      </c>
-      <c r="W23">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="5">
-        <v>45733</v>
-      </c>
-      <c r="C24" s="6">
-        <v>4</v>
-      </c>
-      <c r="D24" s="6">
-        <v>2</v>
-      </c>
-      <c r="E24" s="6">
-        <v>2</v>
-      </c>
-      <c r="F24" s="6">
-        <v>8</v>
-      </c>
-      <c r="G24" s="6">
-        <v>4</v>
-      </c>
-      <c r="H24" s="6">
-        <v>1</v>
-      </c>
-      <c r="I24" s="6">
-        <v>7</v>
-      </c>
-      <c r="J24" s="6">
-        <v>3</v>
-      </c>
-      <c r="K24" s="6">
-        <v>0</v>
-      </c>
-      <c r="L24" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="M24" s="6">
-        <v>3</v>
-      </c>
-      <c r="N24" s="6">
-        <v>1</v>
-      </c>
-      <c r="O24" s="6">
-        <v>5.5</v>
-      </c>
-      <c r="P24" s="6">
-        <v>25</v>
-      </c>
-      <c r="Q24" s="6">
-        <v>14</v>
-      </c>
-      <c r="R24" s="6">
+      <c r="S24">
         <f>M24+J24</f>
         <v>6</v>
       </c>
-      <c r="S24">
-        <v>4</v>
-      </c>
       <c r="T24">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="U24">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="V24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W24">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="X24">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B25" s="1">
         <v>45733</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="G25">
         <v>3</v>
       </c>
       <c r="H25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="J25">
         <v>3</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="M25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="P25">
-        <v>26.5</v>
+        <v>23.5</v>
       </c>
       <c r="Q25">
         <v>13</v>
       </c>
-      <c r="R25" s="7">
+      <c r="R25">
+        <f>C25+G25</f>
+        <v>6</v>
+      </c>
+      <c r="S25">
         <f>M25+J25</f>
-        <v>6</v>
-      </c>
-      <c r="S25">
         <v>7</v>
       </c>
       <c r="T25">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="U25">
+        <v>9</v>
+      </c>
+      <c r="V25">
         <v>8</v>
       </c>
-      <c r="V25">
-        <v>29</v>
-      </c>
       <c r="W25">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>26</v>
+        <v>5</v>
+      </c>
+      <c r="X25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B26" s="1">
         <v>45733</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
+        <v>8</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
         <v>4.5</v>
       </c>
-      <c r="G26">
-        <v>4</v>
-      </c>
-      <c r="H26">
-        <v>4</v>
-      </c>
-      <c r="I26">
-        <v>10</v>
-      </c>
       <c r="J26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26">
+        <v>4</v>
+      </c>
+      <c r="M26">
+        <v>3</v>
+      </c>
+      <c r="N26">
+        <v>2</v>
+      </c>
+      <c r="O26">
         <v>6.5</v>
       </c>
-      <c r="M26">
-        <v>3</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <v>4.5</v>
-      </c>
       <c r="P26">
-        <v>25.5</v>
+        <v>23</v>
       </c>
       <c r="Q26">
+        <v>12</v>
+      </c>
+      <c r="R26">
+        <f>C26+G26</f>
+        <v>7</v>
+      </c>
+      <c r="S26">
+        <f>M26+J26</f>
+        <v>5</v>
+      </c>
+      <c r="T26">
+        <v>5</v>
+      </c>
+      <c r="U26">
+        <v>6</v>
+      </c>
+      <c r="V26">
+        <v>1</v>
+      </c>
+      <c r="W26">
         <v>13</v>
       </c>
-      <c r="R26" s="7">
-        <f>M26+J26</f>
-        <v>6</v>
-      </c>
-      <c r="S26">
-        <v>6</v>
-      </c>
-      <c r="T26">
-        <v>22</v>
-      </c>
-      <c r="U26">
-        <v>8</v>
-      </c>
-      <c r="V26">
-        <v>21</v>
-      </c>
-      <c r="W26">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B27" s="1">
         <v>45733</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="G27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27">
+        <v>5</v>
+      </c>
+      <c r="J27">
+        <v>4</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>8</v>
+      </c>
+      <c r="M27">
+        <v>3</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
         <v>4.5</v>
       </c>
-      <c r="J27">
-        <v>3</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>4.5</v>
-      </c>
-      <c r="M27">
-        <v>3</v>
-      </c>
-      <c r="N27">
-        <v>2</v>
-      </c>
-      <c r="O27">
-        <v>6.5</v>
-      </c>
       <c r="P27">
-        <v>22.5</v>
+        <v>23</v>
       </c>
       <c r="Q27">
+        <v>12</v>
+      </c>
+      <c r="R27">
+        <f>C27+G27</f>
+        <v>5</v>
+      </c>
+      <c r="S27">
+        <f>M27+J27</f>
+        <v>7</v>
+      </c>
+      <c r="T27">
+        <v>5</v>
+      </c>
+      <c r="U27">
+        <v>6</v>
+      </c>
+      <c r="V27">
+        <v>1</v>
+      </c>
+      <c r="W27">
         <v>13</v>
       </c>
-      <c r="R27" s="7">
-        <f>M27+J27</f>
-        <v>6</v>
-      </c>
-      <c r="S27">
-        <v>3</v>
-      </c>
-      <c r="T27">
-        <v>3</v>
-      </c>
-      <c r="U27">
-        <v>8</v>
-      </c>
-      <c r="V27">
-        <v>1</v>
-      </c>
-      <c r="W27">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B28" s="1">
         <v>45733</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="G28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="J28">
         <v>3</v>
@@ -3566,76 +3677,80 @@
         <v>4.5</v>
       </c>
       <c r="M28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O28">
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="P28">
-        <v>22.5</v>
+        <v>23</v>
       </c>
       <c r="Q28">
+        <v>12</v>
+      </c>
+      <c r="R28">
+        <f>C28+G28</f>
+        <v>5</v>
+      </c>
+      <c r="S28">
+        <f>M28+J28</f>
+        <v>7</v>
+      </c>
+      <c r="T28">
+        <v>5</v>
+      </c>
+      <c r="U28">
+        <v>6</v>
+      </c>
+      <c r="V28">
+        <v>1</v>
+      </c>
+      <c r="W28">
         <v>13</v>
       </c>
-      <c r="R28" s="7">
-        <f>M28+J28</f>
-        <v>6</v>
-      </c>
-      <c r="S28">
-        <v>3</v>
-      </c>
-      <c r="T28">
-        <v>3</v>
-      </c>
-      <c r="U28">
-        <v>8</v>
-      </c>
-      <c r="V28">
-        <v>1</v>
-      </c>
-      <c r="W28">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B29" s="1">
         <v>45733</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="G29">
         <v>3</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="J29">
         <v>3</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="M29">
         <v>3</v>
@@ -3647,34 +3762,38 @@
         <v>6.5</v>
       </c>
       <c r="P29">
-        <v>24</v>
+        <v>22.5</v>
       </c>
       <c r="Q29">
-        <v>12</v>
-      </c>
-      <c r="R29" s="7">
+        <v>13</v>
+      </c>
+      <c r="R29">
+        <f>C29+G29</f>
+        <v>7</v>
+      </c>
+      <c r="S29">
         <f>M29+J29</f>
         <v>6</v>
       </c>
-      <c r="S29">
-        <v>6</v>
-      </c>
       <c r="T29">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="U29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V29">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="W29">
+        <v>1</v>
+      </c>
+      <c r="X29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="B30" s="1">
         <v>45733</v>
@@ -3692,133 +3811,141 @@
         <v>4.5</v>
       </c>
       <c r="G30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I30">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O30">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="P30">
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="Q30">
-        <v>12</v>
-      </c>
-      <c r="R30" s="7">
+        <v>13</v>
+      </c>
+      <c r="R30">
+        <f>C30+G30</f>
+        <v>7</v>
+      </c>
+      <c r="S30">
         <f>M30+J30</f>
         <v>6</v>
       </c>
-      <c r="S30">
-        <v>4</v>
-      </c>
       <c r="T30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V30">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="W30">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="X30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B31" s="1">
         <v>45733</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31">
         <v>2</v>
       </c>
       <c r="F31">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="G31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="J31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M31">
         <v>3</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="P31">
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="Q31">
+        <v>13</v>
+      </c>
+      <c r="R31">
+        <f>C31+G31</f>
+        <v>6</v>
+      </c>
+      <c r="S31">
+        <f>M31+J31</f>
+        <v>7</v>
+      </c>
+      <c r="T31">
+        <v>3</v>
+      </c>
+      <c r="U31">
+        <v>3</v>
+      </c>
+      <c r="V31">
+        <v>8</v>
+      </c>
+      <c r="W31">
+        <v>1</v>
+      </c>
+      <c r="X31">
         <v>12</v>
       </c>
-      <c r="R31" s="7">
-        <f>M31+J31</f>
-        <v>6</v>
-      </c>
-      <c r="S31">
-        <v>4</v>
-      </c>
-      <c r="T31">
-        <v>1</v>
-      </c>
-      <c r="U31">
-        <v>1</v>
-      </c>
-      <c r="V31">
-        <v>5</v>
-      </c>
-      <c r="W31">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>20</v>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="B32" s="1">
         <v>45733</v>
@@ -3827,23 +3954,23 @@
         <v>3</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32">
+        <v>4.5</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
         <v>5.5</v>
       </c>
-      <c r="G32">
-        <v>4</v>
-      </c>
-      <c r="H32">
-        <v>3</v>
-      </c>
-      <c r="I32">
-        <v>9</v>
-      </c>
       <c r="J32">
         <v>2</v>
       </c>
@@ -3854,116 +3981,124 @@
         <v>4</v>
       </c>
       <c r="M32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N32">
         <v>2</v>
       </c>
       <c r="O32">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="P32">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q32">
         <v>12</v>
       </c>
-      <c r="R32" s="7">
+      <c r="R32">
+        <f>C32+G32</f>
+        <v>6</v>
+      </c>
+      <c r="S32">
         <f>M32+J32</f>
+        <v>6</v>
+      </c>
+      <c r="T32">
+        <v>4</v>
+      </c>
+      <c r="U32">
+        <v>1</v>
+      </c>
+      <c r="V32">
+        <v>1</v>
+      </c>
+      <c r="W32">
         <v>5</v>
       </c>
-      <c r="S32">
-        <v>7</v>
-      </c>
-      <c r="T32">
-        <v>16</v>
-      </c>
-      <c r="U32">
-        <v>1</v>
-      </c>
-      <c r="V32">
-        <v>29</v>
-      </c>
-      <c r="W32">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B33" s="1">
         <v>45733</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E33">
         <v>2</v>
       </c>
       <c r="F33">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="J33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L33">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="M33">
         <v>3</v>
       </c>
       <c r="N33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="P33">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q33">
         <v>12</v>
       </c>
-      <c r="R33" s="7">
+      <c r="R33">
+        <f>C33+G33</f>
+        <v>6</v>
+      </c>
+      <c r="S33">
         <f>M33+J33</f>
+        <v>6</v>
+      </c>
+      <c r="T33">
+        <v>4</v>
+      </c>
+      <c r="U33">
+        <v>1</v>
+      </c>
+      <c r="V33">
+        <v>1</v>
+      </c>
+      <c r="W33">
         <v>5</v>
       </c>
-      <c r="S33">
-        <v>5</v>
-      </c>
-      <c r="T33">
-        <v>6</v>
-      </c>
-      <c r="U33">
-        <v>1</v>
-      </c>
-      <c r="V33">
-        <v>13</v>
-      </c>
-      <c r="W33">
-        <v>20</v>
+      <c r="X33">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W1" xr:uid="{00000000-0009-0000-0000-000002000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W33">
-      <sortCondition descending="1" ref="R1"/>
+  <autoFilter ref="A1:X1" xr:uid="{00000000-0009-0000-0000-000002000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X33">
+      <sortCondition descending="1" ref="P1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
